--- a/Code/Results/Cases/Case_7_4/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_4/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.010481691051035</v>
+        <v>1.015905875585149</v>
       </c>
       <c r="D2">
-        <v>1.030481644663472</v>
+        <v>1.035178536394344</v>
       </c>
       <c r="E2">
-        <v>1.014863113917108</v>
+        <v>1.020131173310555</v>
       </c>
       <c r="F2">
-        <v>1.030783609696715</v>
+        <v>1.035746895909417</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.051619318259581</v>
+        <v>1.053856467611462</v>
       </c>
       <c r="J2">
-        <v>1.032353353288455</v>
+        <v>1.037621033997778</v>
       </c>
       <c r="K2">
-        <v>1.041532047345538</v>
+        <v>1.046168603819193</v>
       </c>
       <c r="L2">
-        <v>1.026119193783621</v>
+        <v>1.03131699605703</v>
       </c>
       <c r="M2">
-        <v>1.041830112711837</v>
+        <v>1.046729708681821</v>
       </c>
       <c r="N2">
-        <v>1.033819413462709</v>
+        <v>1.039094574882851</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.017442030339666</v>
+        <v>1.020236330643866</v>
       </c>
       <c r="D3">
-        <v>1.036087964679315</v>
+        <v>1.038636868140546</v>
       </c>
       <c r="E3">
-        <v>1.020665326085803</v>
+        <v>1.023592034248932</v>
       </c>
       <c r="F3">
-        <v>1.037213637376482</v>
+        <v>1.039876271165938</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.054174980255133</v>
+        <v>1.055422500935331</v>
       </c>
       <c r="J3">
-        <v>1.037468243370106</v>
+        <v>1.040190133062411</v>
       </c>
       <c r="K3">
-        <v>1.046279011902658</v>
+        <v>1.048798144726009</v>
       </c>
       <c r="L3">
-        <v>1.031040445685045</v>
+        <v>1.033931693609606</v>
       </c>
       <c r="M3">
-        <v>1.047391514671956</v>
+        <v>1.05002313698474</v>
       </c>
       <c r="N3">
-        <v>1.038941567274962</v>
+        <v>1.041667322362836</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.021818418311764</v>
+        <v>1.022983135710683</v>
       </c>
       <c r="D4">
-        <v>1.0396150336285</v>
+        <v>1.04083271269967</v>
       </c>
       <c r="E4">
-        <v>1.024318877178477</v>
+        <v>1.025792882698019</v>
       </c>
       <c r="F4">
-        <v>1.041262496303117</v>
+        <v>1.042500562010986</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.055767779914342</v>
+        <v>1.056405659595438</v>
       </c>
       <c r="J4">
-        <v>1.040680007284097</v>
+        <v>1.041816658170019</v>
       </c>
       <c r="K4">
-        <v>1.049257741383164</v>
+        <v>1.050462087836464</v>
       </c>
       <c r="L4">
-        <v>1.034132393939433</v>
+        <v>1.035589666186752</v>
       </c>
       <c r="M4">
-        <v>1.050887174791748</v>
+        <v>1.052111737560869</v>
       </c>
       <c r="N4">
-        <v>1.042157892262105</v>
+        <v>1.043296157322662</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.023629344607761</v>
+        <v>1.024125102035095</v>
       </c>
       <c r="D5">
-        <v>1.041074913339132</v>
+        <v>1.041746113218839</v>
       </c>
       <c r="E5">
-        <v>1.025831899387452</v>
+        <v>1.026709182374561</v>
       </c>
       <c r="F5">
-        <v>1.042939232964511</v>
+        <v>1.043592770483927</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.056423428723923</v>
+        <v>1.056811923595129</v>
       </c>
       <c r="J5">
-        <v>1.042007932506249</v>
+        <v>1.042492112505334</v>
       </c>
       <c r="K5">
-        <v>1.050488818391047</v>
+        <v>1.051152871670115</v>
       </c>
       <c r="L5">
-        <v>1.035411197977646</v>
+        <v>1.036278798402498</v>
       </c>
       <c r="M5">
-        <v>1.052333315463104</v>
+        <v>1.052979924696424</v>
       </c>
       <c r="N5">
-        <v>1.043487703290388</v>
+        <v>1.043972570880608</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.023931756093412</v>
+        <v>1.024316105731672</v>
       </c>
       <c r="D6">
-        <v>1.041318723414557</v>
+        <v>1.041898915072933</v>
       </c>
       <c r="E6">
-        <v>1.026084631493221</v>
+        <v>1.026862517362826</v>
       </c>
       <c r="F6">
-        <v>1.04321931240688</v>
+        <v>1.043775520058196</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.056532713092751</v>
+        <v>1.05687972804684</v>
       </c>
       <c r="J6">
-        <v>1.042229620818695</v>
+        <v>1.042605042341811</v>
       </c>
       <c r="K6">
-        <v>1.050694308715258</v>
+        <v>1.051268351994169</v>
       </c>
       <c r="L6">
-        <v>1.035624710155977</v>
+        <v>1.036394051423576</v>
       </c>
       <c r="M6">
-        <v>1.052574788055086</v>
+        <v>1.05312512755329</v>
       </c>
       <c r="N6">
-        <v>1.043709706425666</v>
+        <v>1.044085661090406</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.021842727563423</v>
+        <v>1.022998444403212</v>
       </c>
       <c r="D7">
-        <v>1.039634629096414</v>
+        <v>1.040844955449884</v>
       </c>
       <c r="E7">
-        <v>1.024339182815221</v>
+        <v>1.025805161074724</v>
       </c>
       <c r="F7">
-        <v>1.041284999035491</v>
+        <v>1.042515199063614</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.055776594820778</v>
+        <v>1.056411115624131</v>
       </c>
       <c r="J7">
-        <v>1.040697837267664</v>
+        <v>1.041825716063115</v>
       </c>
       <c r="K7">
-        <v>1.049274272986871</v>
+        <v>1.050471352133563</v>
       </c>
       <c r="L7">
-        <v>1.034149562733672</v>
+        <v>1.03559890505694</v>
       </c>
       <c r="M7">
-        <v>1.050906588746227</v>
+        <v>1.052123376669046</v>
       </c>
       <c r="N7">
-        <v>1.042175747566294</v>
+        <v>1.043305228079004</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.012861354692879</v>
+        <v>1.017381096308901</v>
       </c>
       <c r="D8">
-        <v>1.032397896935752</v>
+        <v>1.03635616525152</v>
       </c>
       <c r="E8">
-        <v>1.016845647209202</v>
+        <v>1.021308953087036</v>
       </c>
       <c r="F8">
-        <v>1.032980669777335</v>
+        <v>1.037152543032285</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.052496006395027</v>
+        <v>1.054392065726659</v>
       </c>
       <c r="J8">
-        <v>1.034102942575654</v>
+        <v>1.038496849066551</v>
       </c>
       <c r="K8">
-        <v>1.04315619693215</v>
+        <v>1.047065198280632</v>
       </c>
       <c r="L8">
-        <v>1.027802167656825</v>
+        <v>1.032207814465695</v>
       </c>
       <c r="M8">
-        <v>1.043731686695646</v>
+        <v>1.047851720441482</v>
       </c>
       <c r="N8">
-        <v>1.035571487367377</v>
+        <v>1.039971633709479</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9959802005125272</v>
+        <v>1.007038018581983</v>
       </c>
       <c r="D9">
-        <v>1.01881707269761</v>
+        <v>1.02811079675412</v>
       </c>
       <c r="E9">
-        <v>1.002808497588242</v>
+        <v>1.013076815185635</v>
       </c>
       <c r="F9">
-        <v>1.017423961673413</v>
+        <v>1.027319903322656</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.046218676742995</v>
+        <v>1.050595262511736</v>
       </c>
       <c r="J9">
-        <v>1.021675711212457</v>
+        <v>1.03234467096291</v>
       </c>
       <c r="K9">
-        <v>1.031612058849231</v>
+        <v>1.040763684854455</v>
       </c>
       <c r="L9">
-        <v>1.015856172628059</v>
+        <v>1.02596123407538</v>
       </c>
       <c r="M9">
-        <v>1.030240533888421</v>
+        <v>1.039984756406317</v>
       </c>
       <c r="N9">
-        <v>1.023126607910221</v>
+        <v>1.033810718807266</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9838935310191431</v>
+        <v>0.9998123364489852</v>
       </c>
       <c r="D10">
-        <v>1.00911510782256</v>
+        <v>1.022366922398033</v>
       </c>
       <c r="E10">
-        <v>0.9927970906117418</v>
+        <v>1.007360216071474</v>
       </c>
       <c r="F10">
-        <v>1.006327315670445</v>
+        <v>1.020481140761828</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041652867765333</v>
+        <v>1.047891634737366</v>
       </c>
       <c r="J10">
-        <v>1.012761082960364</v>
+        <v>1.028033402004917</v>
       </c>
       <c r="K10">
-        <v>1.023321713629157</v>
+        <v>1.036343746519486</v>
       </c>
       <c r="L10">
-        <v>1.007297625153925</v>
+        <v>1.021597839107578</v>
       </c>
       <c r="M10">
-        <v>1.020583260564558</v>
+        <v>1.034490193016496</v>
       </c>
       <c r="N10">
-        <v>1.014199319863488</v>
+        <v>1.029493327352844</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9784303868079707</v>
+        <v>0.9965976255620732</v>
       </c>
       <c r="D11">
-        <v>1.004736858468327</v>
+        <v>1.019816053177617</v>
       </c>
       <c r="E11">
-        <v>0.9882829189331579</v>
+        <v>1.004825723630279</v>
       </c>
       <c r="F11">
-        <v>1.001323210615152</v>
+        <v>1.017446303609771</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039573293680696</v>
+        <v>1.046677204187131</v>
       </c>
       <c r="J11">
-        <v>1.008728856003191</v>
+        <v>1.026112635501884</v>
       </c>
       <c r="K11">
-        <v>1.019569994052895</v>
+        <v>1.034373699492682</v>
       </c>
       <c r="L11">
-        <v>1.003429237549593</v>
+        <v>1.019657204092474</v>
       </c>
       <c r="M11">
-        <v>1.016220216189985</v>
+        <v>1.03204654109157</v>
       </c>
       <c r="N11">
-        <v>1.010161366681533</v>
+        <v>1.027569833141062</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9763635158412959</v>
+        <v>0.9953899324292939</v>
       </c>
       <c r="D12">
-        <v>1.003081666587281</v>
+        <v>1.018858502133316</v>
       </c>
       <c r="E12">
-        <v>0.9865768815592147</v>
+        <v>1.003874959257403</v>
       </c>
       <c r="F12">
-        <v>0.9994319002663518</v>
+        <v>1.016307395388336</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038784253037778</v>
+        <v>1.046219279091751</v>
       </c>
       <c r="J12">
-        <v>1.007203030049937</v>
+        <v>1.025390688240095</v>
       </c>
       <c r="K12">
-        <v>1.018150063924234</v>
+        <v>1.033633107089259</v>
       </c>
       <c r="L12">
-        <v>1.001965846303529</v>
+        <v>1.01892829580931</v>
       </c>
       <c r="M12">
-        <v>1.014569992269643</v>
+        <v>1.031128701139267</v>
       </c>
       <c r="N12">
-        <v>1.008633373880411</v>
+        <v>1.026846860631352</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9768086234177025</v>
+        <v>0.9956496140909309</v>
       </c>
       <c r="D13">
-        <v>1.003438059104433</v>
+        <v>1.019064362494914</v>
       </c>
       <c r="E13">
-        <v>0.9869441979829395</v>
+        <v>1.004079331719195</v>
       </c>
       <c r="F13">
-        <v>0.9998391121675806</v>
+        <v>1.016552231216015</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038954276503588</v>
+        <v>1.046317819080437</v>
       </c>
       <c r="J13">
-        <v>1.007531634006534</v>
+        <v>1.025545938944414</v>
       </c>
       <c r="K13">
-        <v>1.018455872800918</v>
+        <v>1.033792372727346</v>
       </c>
       <c r="L13">
-        <v>1.002280984197916</v>
+        <v>1.019085020493367</v>
       </c>
       <c r="M13">
-        <v>1.014925350908891</v>
+        <v>1.03132604856789</v>
       </c>
       <c r="N13">
-        <v>1.008962444492316</v>
+        <v>1.027002331809479</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9782603254532638</v>
+        <v>0.9964980790181657</v>
       </c>
       <c r="D14">
-        <v>1.004600643865777</v>
+        <v>1.019737109438161</v>
       </c>
       <c r="E14">
-        <v>0.9881425091489706</v>
+        <v>1.004747326419775</v>
       </c>
       <c r="F14">
-        <v>1.001167554980553</v>
+        <v>1.017352401904482</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.039508417231566</v>
+        <v>1.046639492879527</v>
       </c>
       <c r="J14">
-        <v>1.008603317301775</v>
+        <v>1.026053134590376</v>
       </c>
       <c r="K14">
-        <v>1.019453172920598</v>
+        <v>1.034312664341068</v>
       </c>
       <c r="L14">
-        <v>1.003308826746831</v>
+        <v>1.019597119153553</v>
       </c>
       <c r="M14">
-        <v>1.016084426467065</v>
+        <v>1.031970882235545</v>
       </c>
       <c r="N14">
-        <v>1.010035649700761</v>
+        <v>1.027510247731434</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9791496822652717</v>
+        <v>0.9970190217229778</v>
       </c>
       <c r="D15">
-        <v>1.005313046048579</v>
+        <v>1.020150265471056</v>
       </c>
       <c r="E15">
-        <v>0.9888768739556855</v>
+        <v>1.005157648220655</v>
       </c>
       <c r="F15">
-        <v>1.001981653201209</v>
+        <v>1.017843853925608</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039847604766073</v>
+        <v>1.046836773421516</v>
       </c>
       <c r="J15">
-        <v>1.009259825354028</v>
+        <v>1.026364497821743</v>
       </c>
       <c r="K15">
-        <v>1.020064082217635</v>
+        <v>1.034632051180494</v>
       </c>
       <c r="L15">
-        <v>1.00393853618041</v>
+        <v>1.019911559227084</v>
       </c>
       <c r="M15">
-        <v>1.016794574589128</v>
+        <v>1.032366824730141</v>
       </c>
       <c r="N15">
-        <v>1.010693090069751</v>
+        <v>1.027822053134303</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9842510072643644</v>
+        <v>1.000023817287605</v>
       </c>
       <c r="D16">
-        <v>1.00940175457941</v>
+        <v>1.022534833009429</v>
       </c>
       <c r="E16">
-        <v>0.9930927118000148</v>
+        <v>1.007527137488372</v>
       </c>
       <c r="F16">
-        <v>1.006655007042932</v>
+        <v>1.020680953767134</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041788623510784</v>
+        <v>1.047971289113372</v>
       </c>
       <c r="J16">
-        <v>1.013024878774576</v>
+        <v>1.028159708033914</v>
       </c>
       <c r="K16">
-        <v>1.023567121960415</v>
+        <v>1.036473275751624</v>
       </c>
       <c r="L16">
-        <v>1.007550761368052</v>
+        <v>1.021725521767949</v>
       </c>
       <c r="M16">
-        <v>1.020868806178758</v>
+        <v>1.034650972166611</v>
       </c>
       <c r="N16">
-        <v>1.014463490298013</v>
+        <v>1.029619812750888</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9873873874228755</v>
+        <v>1.001885161021066</v>
       </c>
       <c r="D17">
-        <v>1.011917511294031</v>
+        <v>1.024013223880402</v>
       </c>
       <c r="E17">
-        <v>0.9956876509882832</v>
+        <v>1.00899730471199</v>
       </c>
       <c r="F17">
-        <v>1.009531385792336</v>
+        <v>1.022440489642423</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042977923251543</v>
+        <v>1.048671051772306</v>
       </c>
       <c r="J17">
-        <v>1.015339029293812</v>
+        <v>1.029271087532567</v>
       </c>
       <c r="K17">
-        <v>1.025719760908895</v>
+        <v>1.037612918909797</v>
       </c>
       <c r="L17">
-        <v>1.00977171615804</v>
+        <v>1.022849396475684</v>
       </c>
       <c r="M17">
-        <v>1.023374334010155</v>
+        <v>1.036066172732199</v>
       </c>
       <c r="N17">
-        <v>1.016780927176423</v>
+        <v>1.030732770535908</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9891948686882222</v>
+        <v>1.002962608394699</v>
       </c>
       <c r="D18">
-        <v>1.013367977312465</v>
+        <v>1.024869428135994</v>
       </c>
       <c r="E18">
-        <v>0.9971841213996129</v>
+        <v>1.00984915159355</v>
       </c>
       <c r="F18">
-        <v>1.01119010453728</v>
+        <v>1.023459735866577</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.043661814561316</v>
+        <v>1.049075009463016</v>
       </c>
       <c r="J18">
-        <v>1.016672388800412</v>
+        <v>1.029914157287662</v>
       </c>
       <c r="K18">
-        <v>1.026959883792566</v>
+        <v>1.038272260005083</v>
       </c>
       <c r="L18">
-        <v>1.011051638245634</v>
+        <v>1.023500014280855</v>
       </c>
       <c r="M18">
-        <v>1.024818437833766</v>
+        <v>1.036885448410796</v>
       </c>
       <c r="N18">
-        <v>1.018116180206462</v>
+        <v>1.031376753523815</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.989807544655293</v>
+        <v>1.003328612291362</v>
       </c>
       <c r="D19">
-        <v>1.013859741827876</v>
+        <v>1.025160348022948</v>
       </c>
       <c r="E19">
-        <v>0.9976915433741427</v>
+        <v>1.01013865973618</v>
       </c>
       <c r="F19">
-        <v>1.011752532954134</v>
+        <v>1.023806091655071</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043893374157143</v>
+        <v>1.049212043470888</v>
       </c>
       <c r="J19">
-        <v>1.017124303548936</v>
+        <v>1.030132560194737</v>
       </c>
       <c r="K19">
-        <v>1.027380166969133</v>
+        <v>1.038496174827451</v>
       </c>
       <c r="L19">
-        <v>1.0114854850163</v>
+        <v>1.023721034567495</v>
       </c>
       <c r="M19">
-        <v>1.025307967458418</v>
+        <v>1.037163764709363</v>
       </c>
       <c r="N19">
-        <v>1.018568736725764</v>
+        <v>1.03159546658807</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9870531718163021</v>
+        <v>1.001686313929896</v>
       </c>
       <c r="D20">
-        <v>1.011649361459658</v>
+        <v>1.023855242447604</v>
       </c>
       <c r="E20">
-        <v>0.9954110248493145</v>
+        <v>1.0088401600329</v>
       </c>
       <c r="F20">
-        <v>1.009224763405673</v>
+        <v>1.022252442520204</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042851345170174</v>
+        <v>1.048596410320601</v>
       </c>
       <c r="J20">
-        <v>1.015092459029489</v>
+        <v>1.029152385413397</v>
       </c>
       <c r="K20">
-        <v>1.025490417765507</v>
+        <v>1.037491206581938</v>
       </c>
       <c r="L20">
-        <v>1.0095350486726</v>
+        <v>1.022729326775183</v>
       </c>
       <c r="M20">
-        <v>1.023107322969068</v>
+        <v>1.035914978362537</v>
       </c>
       <c r="N20">
-        <v>1.016534006754043</v>
+        <v>1.030613899846113</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9778339008685973</v>
+        <v>0.9962486086603873</v>
       </c>
       <c r="D21">
-        <v>1.00425910959258</v>
+        <v>1.019539283434481</v>
       </c>
       <c r="E21">
-        <v>0.9877904648060218</v>
+        <v>1.004550880262659</v>
       </c>
       <c r="F21">
-        <v>1.000777283373287</v>
+        <v>1.017117097564694</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.039345704940423</v>
+        <v>1.046544958719302</v>
       </c>
       <c r="J21">
-        <v>1.008288527511201</v>
+        <v>1.025904015651708</v>
       </c>
       <c r="K21">
-        <v>1.019160238619506</v>
+        <v>1.034159698403601</v>
       </c>
       <c r="L21">
-        <v>1.003006902313803</v>
+        <v>1.019446544722104</v>
       </c>
       <c r="M21">
-        <v>1.015743944831269</v>
+        <v>1.031781279179621</v>
       </c>
       <c r="N21">
-        <v>1.009720412872578</v>
+        <v>1.027360917026768</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C22">
-        <v>0.9718178966412113</v>
+        <v>0.9927506064040547</v>
       </c>
       <c r="D22">
-        <v>0.9994439262355254</v>
+        <v>1.016767298554187</v>
       </c>
       <c r="E22">
-        <v>0.9828283668177085</v>
+        <v>1.001799750182552</v>
       </c>
       <c r="F22">
-        <v>0.9952760668520559</v>
+        <v>1.013820675305735</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037044862563766</v>
+        <v>1.045215463224803</v>
       </c>
       <c r="J22">
-        <v>1.003846874464603</v>
+        <v>1.023812313457457</v>
       </c>
       <c r="K22">
-        <v>1.015026407110365</v>
+        <v>1.032013752719348</v>
       </c>
       <c r="L22">
-        <v>0.9987478487263096</v>
+        <v>1.017335637784478</v>
       </c>
       <c r="M22">
-        <v>1.010941690256209</v>
+        <v>1.029123225446208</v>
       </c>
       <c r="N22">
-        <v>1.005272452169188</v>
+        <v>1.025266244375481</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9750290497173415</v>
+        <v>0.9946127058260124</v>
       </c>
       <c r="D23">
-        <v>1.002013370004854</v>
+        <v>1.018242477783548</v>
       </c>
       <c r="E23">
-        <v>0.9854759178127624</v>
+        <v>1.003263480899126</v>
       </c>
       <c r="F23">
-        <v>0.9982113386671759</v>
+        <v>1.015574783603308</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038274184898976</v>
+        <v>1.04592410516844</v>
       </c>
       <c r="J23">
-        <v>1.006217813904748</v>
+        <v>1.024925974021391</v>
       </c>
       <c r="K23">
-        <v>1.017233157458241</v>
+        <v>1.03315635759126</v>
       </c>
       <c r="L23">
-        <v>1.001021069541563</v>
+        <v>1.018459244017595</v>
       </c>
       <c r="M23">
-        <v>1.013504677535652</v>
+        <v>1.030538071801394</v>
       </c>
       <c r="N23">
-        <v>1.007646758615289</v>
+        <v>1.026381486465154</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9872042569584465</v>
+        <v>1.001776189793742</v>
       </c>
       <c r="D24">
-        <v>1.01177057898398</v>
+        <v>1.023926646323662</v>
       </c>
       <c r="E24">
-        <v>0.9955360730064317</v>
+        <v>1.008911184459619</v>
       </c>
       <c r="F24">
-        <v>1.009363371459347</v>
+        <v>1.022337434700219</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042908570575451</v>
+        <v>1.048630150546326</v>
       </c>
       <c r="J24">
-        <v>1.015203924175263</v>
+        <v>1.029206037768843</v>
       </c>
       <c r="K24">
-        <v>1.025594095730964</v>
+        <v>1.037546219783193</v>
       </c>
       <c r="L24">
-        <v>1.009642036338826</v>
+        <v>1.022783596279902</v>
       </c>
       <c r="M24">
-        <v>1.023228027140762</v>
+        <v>1.035983315675156</v>
       </c>
       <c r="N24">
-        <v>1.016645630193109</v>
+        <v>1.030667628394057</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.00048127799219</v>
+        <v>1.009767749245143</v>
       </c>
       <c r="D25">
-        <v>1.022435029356066</v>
+        <v>1.030284306865945</v>
       </c>
       <c r="E25">
-        <v>1.006545133543863</v>
+        <v>1.015243712059661</v>
       </c>
       <c r="F25">
-        <v>1.021565276935463</v>
+        <v>1.029909858763862</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.047904902161793</v>
+        <v>1.051606312424716</v>
       </c>
       <c r="J25">
-        <v>1.024992456061357</v>
+        <v>1.033970802576048</v>
       </c>
       <c r="K25">
-        <v>1.034694774426912</v>
+        <v>1.042430008560919</v>
       </c>
       <c r="L25">
-        <v>1.019042687365727</v>
+        <v>1.027609909624002</v>
       </c>
       <c r="M25">
-        <v>1.033837795714504</v>
+        <v>1.042060950852794</v>
       </c>
       <c r="N25">
-        <v>1.026448062917242</v>
+        <v>1.035439159713815</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_4/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_4/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,46 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.015905875585149</v>
+        <v>1.009102212208774</v>
       </c>
       <c r="D2">
-        <v>1.035178536394344</v>
+        <v>1.02880255853831</v>
       </c>
       <c r="E2">
-        <v>1.020131173310555</v>
+        <v>1.014334101867913</v>
       </c>
       <c r="F2">
-        <v>1.035746895909417</v>
+        <v>1.032913951474189</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.053856467611462</v>
+        <v>1.049743806994182</v>
       </c>
       <c r="J2">
-        <v>1.037621033997778</v>
+        <v>1.03101404470434</v>
       </c>
       <c r="K2">
-        <v>1.046168603819193</v>
+        <v>1.039874697704603</v>
       </c>
       <c r="L2">
-        <v>1.03131699605703</v>
+        <v>1.025597287539865</v>
       </c>
       <c r="M2">
-        <v>1.046729708681821</v>
+        <v>1.043933023620815</v>
       </c>
       <c r="N2">
-        <v>1.039094574882851</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.014247422487322</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.043342426309078</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +480,46 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.020236330643866</v>
+        <v>1.012504685301084</v>
       </c>
       <c r="D3">
-        <v>1.038636868140546</v>
+        <v>1.031217273365856</v>
       </c>
       <c r="E3">
-        <v>1.023592034248932</v>
+        <v>1.016978973432158</v>
       </c>
       <c r="F3">
-        <v>1.039876271165938</v>
+        <v>1.035449555629121</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.055422500935331</v>
+        <v>1.050674212387444</v>
       </c>
       <c r="J3">
-        <v>1.040190133062411</v>
+        <v>1.032660168956834</v>
       </c>
       <c r="K3">
-        <v>1.048798144726009</v>
+        <v>1.041465716247508</v>
       </c>
       <c r="L3">
-        <v>1.033931693609606</v>
+        <v>1.027399118386331</v>
       </c>
       <c r="M3">
-        <v>1.05002313698474</v>
+        <v>1.045648087734727</v>
       </c>
       <c r="N3">
-        <v>1.041667322362836</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.014798799777592</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.04469977797566</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +527,46 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.022983135710683</v>
+        <v>1.014668922740814</v>
       </c>
       <c r="D4">
-        <v>1.04083271269967</v>
+        <v>1.032755795859035</v>
       </c>
       <c r="E4">
-        <v>1.025792882698019</v>
+        <v>1.018666821536115</v>
       </c>
       <c r="F4">
-        <v>1.042500562010986</v>
+        <v>1.037068607666154</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.056405659595438</v>
+        <v>1.051256304092206</v>
       </c>
       <c r="J4">
-        <v>1.041816658170019</v>
+        <v>1.033704696181298</v>
       </c>
       <c r="K4">
-        <v>1.050462087836464</v>
+        <v>1.042474329361719</v>
       </c>
       <c r="L4">
-        <v>1.035589666186752</v>
+        <v>1.028545056102784</v>
       </c>
       <c r="M4">
-        <v>1.052111737560869</v>
+        <v>1.046739321121948</v>
       </c>
       <c r="N4">
-        <v>1.043296157322662</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.015148610510275</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.045563410533795</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +574,46 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.024125102035095</v>
+        <v>1.015570050130371</v>
       </c>
       <c r="D5">
-        <v>1.041746113218839</v>
+        <v>1.033396975311521</v>
       </c>
       <c r="E5">
-        <v>1.026709182374561</v>
+        <v>1.019370886497653</v>
       </c>
       <c r="F5">
-        <v>1.043592770483927</v>
+        <v>1.037744192394817</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.056811923595129</v>
+        <v>1.051496303923314</v>
       </c>
       <c r="J5">
-        <v>1.042492112505334</v>
+        <v>1.034138974804112</v>
       </c>
       <c r="K5">
-        <v>1.051152871670115</v>
+        <v>1.042893441271547</v>
       </c>
       <c r="L5">
-        <v>1.036278798402498</v>
+        <v>1.029022127209848</v>
       </c>
       <c r="M5">
-        <v>1.052979924696424</v>
+        <v>1.0471937288597</v>
       </c>
       <c r="N5">
-        <v>1.043972570880608</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.015294034350051</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.045923041199842</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +621,46 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.024316105731672</v>
+        <v>1.015720848775293</v>
       </c>
       <c r="D6">
-        <v>1.041898915072933</v>
+        <v>1.033504306299466</v>
       </c>
       <c r="E6">
-        <v>1.026862517362826</v>
+        <v>1.019488783019292</v>
       </c>
       <c r="F6">
-        <v>1.043775520058196</v>
+        <v>1.037857332434368</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.05687972804684</v>
+        <v>1.051536326444226</v>
       </c>
       <c r="J6">
-        <v>1.042605042341811</v>
+        <v>1.034211610995216</v>
       </c>
       <c r="K6">
-        <v>1.051268351994169</v>
+        <v>1.042963526697238</v>
       </c>
       <c r="L6">
-        <v>1.036394051423576</v>
+        <v>1.029101957860302</v>
       </c>
       <c r="M6">
-        <v>1.05312512755329</v>
+        <v>1.047269773545058</v>
       </c>
       <c r="N6">
-        <v>1.044085661090406</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.015318356572338</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.045983225018824</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +668,46 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.022998444403212</v>
+        <v>1.014680997601344</v>
       </c>
       <c r="D7">
-        <v>1.040844955449884</v>
+        <v>1.032764385237348</v>
       </c>
       <c r="E7">
-        <v>1.025805161074724</v>
+        <v>1.018676250747677</v>
       </c>
       <c r="F7">
-        <v>1.042515199063614</v>
+        <v>1.03707765460749</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.056411115624131</v>
+        <v>1.051259529412649</v>
       </c>
       <c r="J7">
-        <v>1.041825716063115</v>
+        <v>1.033710517927114</v>
       </c>
       <c r="K7">
-        <v>1.050471352133563</v>
+        <v>1.042479948726897</v>
       </c>
       <c r="L7">
-        <v>1.03559890505694</v>
+        <v>1.028551449014393</v>
       </c>
       <c r="M7">
-        <v>1.052123376669046</v>
+        <v>1.046745409904136</v>
       </c>
       <c r="N7">
-        <v>1.043305228079004</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.015150560060463</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.045568229363099</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +715,46 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.017381096308901</v>
+        <v>1.010259979059317</v>
       </c>
       <c r="D8">
-        <v>1.03635616525152</v>
+        <v>1.029623657635263</v>
       </c>
       <c r="E8">
-        <v>1.021308953087036</v>
+        <v>1.015232909213539</v>
       </c>
       <c r="F8">
-        <v>1.037152543032285</v>
+        <v>1.033775427260186</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.054392065726659</v>
+        <v>1.050062409797616</v>
       </c>
       <c r="J8">
-        <v>1.038496849066551</v>
+        <v>1.031574690338238</v>
       </c>
       <c r="K8">
-        <v>1.047065198280632</v>
+        <v>1.040416769093625</v>
       </c>
       <c r="L8">
-        <v>1.032207814465695</v>
+        <v>1.026210419919759</v>
       </c>
       <c r="M8">
-        <v>1.047851720441482</v>
+        <v>1.044516528359863</v>
       </c>
       <c r="N8">
-        <v>1.039971633709479</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.014435224918647</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.04380422922912</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +762,46 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.007038018581983</v>
+        <v>1.002172297264404</v>
       </c>
       <c r="D9">
-        <v>1.02811079675412</v>
+        <v>1.023900167052216</v>
       </c>
       <c r="E9">
-        <v>1.013076815185635</v>
+        <v>1.008978601933941</v>
       </c>
       <c r="F9">
-        <v>1.027319903322656</v>
+        <v>1.027785093775738</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.050595262511736</v>
+        <v>1.047797240839482</v>
       </c>
       <c r="J9">
-        <v>1.03234467096291</v>
+        <v>1.027648578632741</v>
       </c>
       <c r="K9">
-        <v>1.040763684854455</v>
+        <v>1.036617026724443</v>
       </c>
       <c r="L9">
-        <v>1.02596123407538</v>
+        <v>1.021927668031495</v>
       </c>
       <c r="M9">
-        <v>1.039984756406317</v>
+        <v>1.040442906412779</v>
       </c>
       <c r="N9">
-        <v>1.033810718807266</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.013119882054654</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.040580238125178</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +809,46 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9998123364489852</v>
+        <v>0.9966121664223168</v>
       </c>
       <c r="D10">
-        <v>1.022366922398033</v>
+        <v>1.020007871675527</v>
       </c>
       <c r="E10">
-        <v>1.007360216071474</v>
+        <v>1.004716878264099</v>
       </c>
       <c r="F10">
-        <v>1.020481140761828</v>
+        <v>1.023784901342226</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.047891634737366</v>
+        <v>1.046211908341594</v>
       </c>
       <c r="J10">
-        <v>1.028033402004917</v>
+        <v>1.024960846188589</v>
       </c>
       <c r="K10">
-        <v>1.036343746519486</v>
+        <v>1.034025036306696</v>
       </c>
       <c r="L10">
-        <v>1.021597839107578</v>
+        <v>1.019001487090615</v>
       </c>
       <c r="M10">
-        <v>1.034490193016496</v>
+        <v>1.037737593069405</v>
       </c>
       <c r="N10">
-        <v>1.029493327352844</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.012223227133443</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.038490598666956</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +856,46 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9965976255620732</v>
+        <v>0.9945261937081746</v>
       </c>
       <c r="D11">
-        <v>1.019816053177617</v>
+        <v>1.018752877237176</v>
       </c>
       <c r="E11">
-        <v>1.004825723630279</v>
+        <v>1.003174299450247</v>
       </c>
       <c r="F11">
-        <v>1.017446303609771</v>
+        <v>1.022943263576619</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.046677204187131</v>
+        <v>1.045765457934276</v>
       </c>
       <c r="J11">
-        <v>1.026112635501884</v>
+        <v>1.024128475823501</v>
       </c>
       <c r="K11">
-        <v>1.034373699492682</v>
+        <v>1.033329600017003</v>
       </c>
       <c r="L11">
-        <v>1.019657204092474</v>
+        <v>1.018036600387862</v>
       </c>
       <c r="M11">
-        <v>1.03204654109157</v>
+        <v>1.03744509694786</v>
       </c>
       <c r="N11">
-        <v>1.027569833141062</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.011979573272485</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.038695219843633</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +903,46 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9953899324292939</v>
+        <v>0.9938767369640993</v>
       </c>
       <c r="D12">
-        <v>1.018858502133316</v>
+        <v>1.018446189233734</v>
       </c>
       <c r="E12">
-        <v>1.003874959257403</v>
+        <v>1.002716434439604</v>
       </c>
       <c r="F12">
-        <v>1.016307395388336</v>
+        <v>1.022956356771978</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.046219279091751</v>
+        <v>1.045689749816062</v>
       </c>
       <c r="J12">
-        <v>1.025390688240095</v>
+        <v>1.023942524257194</v>
       </c>
       <c r="K12">
-        <v>1.033633107089259</v>
+        <v>1.033228321392901</v>
       </c>
       <c r="L12">
-        <v>1.01892829580931</v>
+        <v>1.017791776243811</v>
       </c>
       <c r="M12">
-        <v>1.031128701139267</v>
+        <v>1.037656579919251</v>
       </c>
       <c r="N12">
-        <v>1.026846860631352</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.01194510017914</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.039188750820179</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +950,46 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9956496140909309</v>
+        <v>0.994291668792237</v>
       </c>
       <c r="D13">
-        <v>1.019064362494914</v>
+        <v>1.018852255285989</v>
       </c>
       <c r="E13">
-        <v>1.004079331719195</v>
+        <v>1.00306241859694</v>
       </c>
       <c r="F13">
-        <v>1.016552231216015</v>
+        <v>1.023642061352159</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.046317819080437</v>
+        <v>1.045900865636655</v>
       </c>
       <c r="J13">
-        <v>1.025545938944414</v>
+        <v>1.024246083036729</v>
       </c>
       <c r="K13">
-        <v>1.033792372727346</v>
+        <v>1.033584121798372</v>
       </c>
       <c r="L13">
-        <v>1.019085020493367</v>
+        <v>1.018087344164541</v>
       </c>
       <c r="M13">
-        <v>1.03132604856789</v>
+        <v>1.038287351327563</v>
       </c>
       <c r="N13">
-        <v>1.027002331809479</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.012070772351507</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.039964012460887</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +997,46 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9964980790181657</v>
+        <v>0.9950625447393274</v>
       </c>
       <c r="D14">
-        <v>1.019737109438161</v>
+        <v>1.019456906697495</v>
       </c>
       <c r="E14">
-        <v>1.004747326419775</v>
+        <v>1.003667138740897</v>
       </c>
       <c r="F14">
-        <v>1.017352401904482</v>
+        <v>1.024423828040378</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.046639492879527</v>
+        <v>1.046176812536851</v>
       </c>
       <c r="J14">
-        <v>1.026053134590376</v>
+        <v>1.024678129925704</v>
       </c>
       <c r="K14">
-        <v>1.034312664341068</v>
+        <v>1.034037491803123</v>
       </c>
       <c r="L14">
-        <v>1.019597119153553</v>
+        <v>1.018537106531252</v>
       </c>
       <c r="M14">
-        <v>1.031970882235545</v>
+        <v>1.038915776168906</v>
       </c>
       <c r="N14">
-        <v>1.027510247731434</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.012230420986076</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.040633985213087</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1044,46 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9970190217229778</v>
+        <v>0.995485153815053</v>
       </c>
       <c r="D15">
-        <v>1.020150265471056</v>
+        <v>1.019765459036026</v>
       </c>
       <c r="E15">
-        <v>1.005157648220655</v>
+        <v>1.003992803330241</v>
       </c>
       <c r="F15">
-        <v>1.017843853925608</v>
+        <v>1.024775431284886</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.046836773421516</v>
+        <v>1.046310134702238</v>
       </c>
       <c r="J15">
-        <v>1.026364497821743</v>
+        <v>1.024894735523053</v>
       </c>
       <c r="K15">
-        <v>1.034632051180494</v>
+        <v>1.034254099342689</v>
       </c>
       <c r="L15">
-        <v>1.019911559227084</v>
+        <v>1.018768300757378</v>
       </c>
       <c r="M15">
-        <v>1.032366824730141</v>
+        <v>1.03917535054066</v>
       </c>
       <c r="N15">
-        <v>1.027822053134303</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.012305946691572</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.040876665022624</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1091,46 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.000023817287605</v>
+        <v>0.9977570693119855</v>
       </c>
       <c r="D16">
-        <v>1.022534833009429</v>
+        <v>1.021339052357984</v>
       </c>
       <c r="E16">
-        <v>1.007527137488372</v>
+        <v>1.005723008384137</v>
       </c>
       <c r="F16">
-        <v>1.020680953767134</v>
+        <v>1.026369613499569</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.047971289113372</v>
+        <v>1.046957232822012</v>
       </c>
       <c r="J16">
-        <v>1.028159708033914</v>
+        <v>1.025982888957881</v>
       </c>
       <c r="K16">
-        <v>1.036473275751624</v>
+        <v>1.03529784493649</v>
       </c>
       <c r="L16">
-        <v>1.021725521767949</v>
+        <v>1.019953318882935</v>
       </c>
       <c r="M16">
-        <v>1.034650972166611</v>
+        <v>1.040243208322802</v>
       </c>
       <c r="N16">
-        <v>1.029619812750888</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.012664367313007</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.041682007234671</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1138,46 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.001885161021066</v>
+        <v>0.9990979169039388</v>
       </c>
       <c r="D17">
-        <v>1.024013223880402</v>
+        <v>1.022230359956146</v>
       </c>
       <c r="E17">
-        <v>1.00899730471199</v>
+        <v>1.006736384480165</v>
       </c>
       <c r="F17">
-        <v>1.022440489642423</v>
+        <v>1.027178547686499</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.048671051772306</v>
+        <v>1.047306484030183</v>
       </c>
       <c r="J17">
-        <v>1.029271087532567</v>
+        <v>1.026590805026553</v>
       </c>
       <c r="K17">
-        <v>1.037612918909797</v>
+        <v>1.035859523051114</v>
       </c>
       <c r="L17">
-        <v>1.022849396475684</v>
+        <v>1.020627322489678</v>
       </c>
       <c r="M17">
-        <v>1.036066172732199</v>
+        <v>1.040726248641832</v>
       </c>
       <c r="N17">
-        <v>1.030732770535908</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.012855383913869</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.041934873269052</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1185,46 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.002962608394699</v>
+        <v>0.9997553391850618</v>
       </c>
       <c r="D18">
-        <v>1.024869428135994</v>
+        <v>1.022598207212428</v>
       </c>
       <c r="E18">
-        <v>1.00984915159355</v>
+        <v>1.007216769753962</v>
       </c>
       <c r="F18">
-        <v>1.023459735866577</v>
+        <v>1.027339182221948</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.049075009463016</v>
+        <v>1.04742239233847</v>
       </c>
       <c r="J18">
-        <v>1.029914157287662</v>
+        <v>1.026827592698436</v>
       </c>
       <c r="K18">
-        <v>1.038272260005083</v>
+        <v>1.036037943107663</v>
       </c>
       <c r="L18">
-        <v>1.023500014280855</v>
+        <v>1.020912084338115</v>
       </c>
       <c r="M18">
-        <v>1.036885448410796</v>
+        <v>1.040702121815882</v>
       </c>
       <c r="N18">
-        <v>1.031376753523815</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.012914351613104</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.041678299579084</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1232,46 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.003328612291362</v>
+        <v>0.9997815486781441</v>
       </c>
       <c r="D19">
-        <v>1.025160348022948</v>
+        <v>1.022478106326825</v>
       </c>
       <c r="E19">
-        <v>1.01013865973618</v>
+        <v>1.007203227037037</v>
       </c>
       <c r="F19">
-        <v>1.023806091655071</v>
+        <v>1.026894499037566</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.049212043470888</v>
+        <v>1.047320810938029</v>
       </c>
       <c r="J19">
-        <v>1.030132560194737</v>
+        <v>1.026718135865296</v>
       </c>
       <c r="K19">
-        <v>1.038496174827451</v>
+        <v>1.035857274000164</v>
       </c>
       <c r="L19">
-        <v>1.023721034567495</v>
+        <v>1.020834888409063</v>
       </c>
       <c r="M19">
-        <v>1.037163764709363</v>
+        <v>1.040202459205625</v>
       </c>
       <c r="N19">
-        <v>1.03159546658807</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.012851642437412</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.040957967003366</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1279,46 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.001686313929896</v>
+        <v>0.9980528689865031</v>
       </c>
       <c r="D20">
-        <v>1.023855242447604</v>
+        <v>1.021016227621016</v>
       </c>
       <c r="E20">
-        <v>1.0088401600329</v>
+        <v>1.005818965646381</v>
       </c>
       <c r="F20">
-        <v>1.022252442520204</v>
+        <v>1.024822729272185</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.048596410320601</v>
+        <v>1.0466270602224</v>
       </c>
       <c r="J20">
-        <v>1.029152385413397</v>
+        <v>1.025659056161498</v>
       </c>
       <c r="K20">
-        <v>1.037491206581938</v>
+        <v>1.034699331218767</v>
       </c>
       <c r="L20">
-        <v>1.022729326775183</v>
+        <v>1.019760261489643</v>
       </c>
       <c r="M20">
-        <v>1.035914978362537</v>
+        <v>1.038442705875908</v>
       </c>
       <c r="N20">
-        <v>1.030613899846113</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.012456335699262</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.039038072162774</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,81 +1326,93 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9962486086603873</v>
+        <v>0.9938124341864359</v>
       </c>
       <c r="D21">
-        <v>1.019539283434481</v>
+        <v>1.018015352412006</v>
       </c>
       <c r="E21">
-        <v>1.004550880262659</v>
+        <v>1.00257122122982</v>
       </c>
       <c r="F21">
-        <v>1.017117097564694</v>
+        <v>1.021658223216855</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.046544958719302</v>
+        <v>1.045370857700153</v>
       </c>
       <c r="J21">
-        <v>1.025904015651708</v>
+        <v>1.02357115243986</v>
       </c>
       <c r="K21">
-        <v>1.034159698403601</v>
+        <v>1.032663271804173</v>
       </c>
       <c r="L21">
-        <v>1.019446544722104</v>
+        <v>1.017504044225673</v>
       </c>
       <c r="M21">
-        <v>1.031781279179621</v>
+        <v>1.036240571967057</v>
       </c>
       <c r="N21">
-        <v>1.027360917026768</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.011753542919282</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.037254364838033</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9927506064040547</v>
+        <v>0.991119838614773</v>
       </c>
       <c r="D22">
-        <v>1.016767298554187</v>
+        <v>1.016126960657682</v>
       </c>
       <c r="E22">
-        <v>1.001799750182552</v>
+        <v>1.00051937557158</v>
       </c>
       <c r="F22">
-        <v>1.013820675305735</v>
+        <v>1.0196983464684</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.045215463224803</v>
+        <v>1.044573802629724</v>
       </c>
       <c r="J22">
-        <v>1.023812313457457</v>
+        <v>1.022254800202256</v>
       </c>
       <c r="K22">
-        <v>1.032013752719348</v>
+        <v>1.031385568995698</v>
       </c>
       <c r="L22">
-        <v>1.017335637784478</v>
+        <v>1.016080550547245</v>
       </c>
       <c r="M22">
-        <v>1.029123225446208</v>
+        <v>1.03488942131193</v>
       </c>
       <c r="N22">
-        <v>1.025266244375481</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.011312409707411</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.03618501403908</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1420,46 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9946127058260124</v>
+        <v>0.9925520846945282</v>
       </c>
       <c r="D23">
-        <v>1.018242477783548</v>
+        <v>1.01713100074954</v>
       </c>
       <c r="E23">
-        <v>1.003263480899126</v>
+        <v>1.001610086592404</v>
       </c>
       <c r="F23">
-        <v>1.015574783603308</v>
+        <v>1.020740039857342</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.04592410516844</v>
+        <v>1.044998639713405</v>
       </c>
       <c r="J23">
-        <v>1.024925974021391</v>
+        <v>1.022955151656002</v>
       </c>
       <c r="K23">
-        <v>1.03315635759126</v>
+        <v>1.032065425170005</v>
       </c>
       <c r="L23">
-        <v>1.018459244017595</v>
+        <v>1.016837641007931</v>
       </c>
       <c r="M23">
-        <v>1.030538071801394</v>
+        <v>1.035607967153607</v>
       </c>
       <c r="N23">
-        <v>1.026381486465154</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.011547110532585</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.036753698099235</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1467,46 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.001776189793742</v>
+        <v>0.998085198506197</v>
       </c>
       <c r="D24">
-        <v>1.023926646323662</v>
+        <v>1.021019039014</v>
       </c>
       <c r="E24">
-        <v>1.008911184459619</v>
+        <v>1.005838989387815</v>
       </c>
       <c r="F24">
-        <v>1.022337434700219</v>
+        <v>1.024781664331689</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.048630150546326</v>
+        <v>1.046620671275451</v>
       </c>
       <c r="J24">
-        <v>1.029206037768843</v>
+        <v>1.025657156905696</v>
       </c>
       <c r="K24">
-        <v>1.037546219783193</v>
+        <v>1.034686824514407</v>
       </c>
       <c r="L24">
-        <v>1.022783596279902</v>
+        <v>1.019764335912777</v>
       </c>
       <c r="M24">
-        <v>1.035983315675156</v>
+        <v>1.038387127414196</v>
       </c>
       <c r="N24">
-        <v>1.030667628394057</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.012452582415234</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.038953225225504</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1514,43 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.009767749245143</v>
+        <v>1.004299980917706</v>
       </c>
       <c r="D25">
-        <v>1.030284306865945</v>
+        <v>1.025403059787722</v>
       </c>
       <c r="E25">
-        <v>1.015243712059661</v>
+        <v>1.010618526723706</v>
       </c>
       <c r="F25">
-        <v>1.029909858763862</v>
+        <v>1.029354857055714</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.051606312424716</v>
+        <v>1.048401724014512</v>
       </c>
       <c r="J25">
-        <v>1.033970802576048</v>
+        <v>1.028683495072193</v>
       </c>
       <c r="K25">
-        <v>1.042430008560919</v>
+        <v>1.037619421514889</v>
       </c>
       <c r="L25">
-        <v>1.027609909624002</v>
+        <v>1.023054210112024</v>
       </c>
       <c r="M25">
-        <v>1.042060950852794</v>
+        <v>1.041513947850614</v>
       </c>
       <c r="N25">
-        <v>1.035439159713815</v>
+        <v>1.013466642341065</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.041427895019871</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_4/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_4/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,46 +439,55 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.009102212208774</v>
+        <v>1.008607827162949</v>
       </c>
       <c r="D2">
-        <v>1.02880255853831</v>
+        <v>1.027768384655187</v>
       </c>
       <c r="E2">
-        <v>1.014334101867913</v>
+        <v>1.013912951292177</v>
       </c>
       <c r="F2">
-        <v>1.032913951474189</v>
+        <v>1.032212534570342</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.049743806994182</v>
+        <v>1.049228113850365</v>
       </c>
       <c r="J2">
-        <v>1.03101404470434</v>
+        <v>1.030534092789667</v>
       </c>
       <c r="K2">
-        <v>1.039874697704603</v>
+        <v>1.038853955892588</v>
       </c>
       <c r="L2">
-        <v>1.025597287539865</v>
+        <v>1.025181800614062</v>
       </c>
       <c r="M2">
-        <v>1.043933023620815</v>
+        <v>1.043240622719353</v>
       </c>
       <c r="N2">
-        <v>1.014247422487322</v>
+        <v>1.015305276366976</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.043342426309078</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.042794439363222</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.022394189958948</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -480,46 +495,55 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.012504685301084</v>
+        <v>1.011879775202273</v>
       </c>
       <c r="D3">
-        <v>1.031217273365856</v>
+        <v>1.03000152737968</v>
       </c>
       <c r="E3">
-        <v>1.016978973432158</v>
+        <v>1.016443586435401</v>
       </c>
       <c r="F3">
-        <v>1.035449555629121</v>
+        <v>1.034618031386283</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.050674212387444</v>
+        <v>1.050056276482278</v>
       </c>
       <c r="J3">
-        <v>1.032660168956834</v>
+        <v>1.032051742445413</v>
       </c>
       <c r="K3">
-        <v>1.041465716247508</v>
+        <v>1.04026440138065</v>
       </c>
       <c r="L3">
-        <v>1.027399118386331</v>
+        <v>1.026870304427214</v>
       </c>
       <c r="M3">
-        <v>1.045648087734727</v>
+        <v>1.044826329654028</v>
       </c>
       <c r="N3">
-        <v>1.014798799777592</v>
+        <v>1.015708884800492</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.04469977797566</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.044049415023456</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.022671130168567</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -527,46 +551,55 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.014668922740814</v>
+        <v>1.013961751903604</v>
       </c>
       <c r="D4">
-        <v>1.032755795859035</v>
+        <v>1.03142507429118</v>
       </c>
       <c r="E4">
-        <v>1.018666821536115</v>
+        <v>1.018059345292792</v>
       </c>
       <c r="F4">
-        <v>1.037068607666154</v>
+        <v>1.03615482560076</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.051256304092206</v>
+        <v>1.050573535073543</v>
       </c>
       <c r="J4">
-        <v>1.033704696181298</v>
+        <v>1.033014934077223</v>
       </c>
       <c r="K4">
-        <v>1.042474329361719</v>
+        <v>1.041158462068762</v>
       </c>
       <c r="L4">
-        <v>1.028545056102784</v>
+        <v>1.027944588478839</v>
       </c>
       <c r="M4">
-        <v>1.046739321121948</v>
+        <v>1.045835630124955</v>
       </c>
       <c r="N4">
-        <v>1.015148610510275</v>
+        <v>1.015965027693322</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.045563410533795</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.044848204329883</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.022844196005343</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -574,46 +607,55 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.015570050130371</v>
+        <v>1.014828800172147</v>
       </c>
       <c r="D5">
-        <v>1.033396975311521</v>
+        <v>1.032018499128716</v>
       </c>
       <c r="E5">
-        <v>1.019370886497653</v>
+        <v>1.018733525468525</v>
       </c>
       <c r="F5">
-        <v>1.037744192394817</v>
+        <v>1.036796274152368</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.051496303923314</v>
+        <v>1.05078658533213</v>
       </c>
       <c r="J5">
-        <v>1.034138974804112</v>
+        <v>1.033415434772522</v>
       </c>
       <c r="K5">
-        <v>1.042893441271547</v>
+        <v>1.041529947455417</v>
       </c>
       <c r="L5">
-        <v>1.029022127209848</v>
+        <v>1.028391923966748</v>
       </c>
       <c r="M5">
-        <v>1.0471937288597</v>
+        <v>1.046256002552115</v>
       </c>
       <c r="N5">
-        <v>1.015294034350051</v>
+        <v>1.01607152993743</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.045923041199842</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.045180898854099</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.022915503091079</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -621,46 +663,55 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.015720848775293</v>
+        <v>1.014973905652778</v>
       </c>
       <c r="D6">
-        <v>1.033504306299466</v>
+        <v>1.032117845398637</v>
       </c>
       <c r="E6">
-        <v>1.019488783019292</v>
+        <v>1.018846428458155</v>
       </c>
       <c r="F6">
-        <v>1.037857332434368</v>
+        <v>1.03690370818907</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.051536326444226</v>
+        <v>1.050822100552776</v>
       </c>
       <c r="J6">
-        <v>1.034211610995216</v>
+        <v>1.033482423461499</v>
       </c>
       <c r="K6">
-        <v>1.042963526697238</v>
+        <v>1.041592066853248</v>
       </c>
       <c r="L6">
-        <v>1.029101957860302</v>
+        <v>1.028466784214436</v>
       </c>
       <c r="M6">
-        <v>1.047269773545058</v>
+        <v>1.046326356151916</v>
       </c>
       <c r="N6">
-        <v>1.015318356572338</v>
+        <v>1.016089343527595</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.045983225018824</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.045236578650629</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.022927391371699</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -668,46 +719,55 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.014680997601344</v>
+        <v>1.013980071277718</v>
       </c>
       <c r="D7">
-        <v>1.032764385237348</v>
+        <v>1.031438048678232</v>
       </c>
       <c r="E7">
-        <v>1.018676250747677</v>
+        <v>1.018074352853445</v>
       </c>
       <c r="F7">
-        <v>1.03707765460749</v>
+        <v>1.03616758650158</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.051259529412649</v>
+        <v>1.050579986888905</v>
       </c>
       <c r="J7">
-        <v>1.033710517927114</v>
+        <v>1.03302683962519</v>
       </c>
       <c r="K7">
-        <v>1.042479948726897</v>
+        <v>1.041168412180283</v>
       </c>
       <c r="L7">
-        <v>1.028551449014393</v>
+        <v>1.027956492852095</v>
       </c>
       <c r="M7">
-        <v>1.046745409904136</v>
+        <v>1.045845388247741</v>
       </c>
       <c r="N7">
-        <v>1.015150560060463</v>
+        <v>1.01599399367265</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.045568229363099</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.044855927183543</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.02284667940771</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -715,46 +775,55 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.010259979059317</v>
+        <v>1.009741569144799</v>
       </c>
       <c r="D8">
-        <v>1.029623657635263</v>
+        <v>1.028543004886842</v>
       </c>
       <c r="E8">
-        <v>1.015232909213539</v>
+        <v>1.014791120516</v>
       </c>
       <c r="F8">
-        <v>1.033775427260186</v>
+        <v>1.033042433370666</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.050062409797616</v>
+        <v>1.04952286164161</v>
       </c>
       <c r="J8">
-        <v>1.031574690338238</v>
+        <v>1.031070914225481</v>
       </c>
       <c r="K8">
-        <v>1.040416769093625</v>
+        <v>1.039349739909744</v>
       </c>
       <c r="L8">
-        <v>1.026210419919759</v>
+        <v>1.025774395813671</v>
       </c>
       <c r="M8">
-        <v>1.044516528359863</v>
+        <v>1.04379267901198</v>
       </c>
       <c r="N8">
-        <v>1.014435224918647</v>
+        <v>1.015526453378387</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.04380422922912</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.043231353388273</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.022493768389895</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -762,46 +831,55 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.002172297264404</v>
+        <v>1.001971915748456</v>
       </c>
       <c r="D9">
-        <v>1.023900167052216</v>
+        <v>1.023256530348527</v>
       </c>
       <c r="E9">
-        <v>1.008978601933941</v>
+        <v>1.00881453655063</v>
       </c>
       <c r="F9">
-        <v>1.027785093775738</v>
+        <v>1.027366326661106</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.047797240839482</v>
+        <v>1.047503510404357</v>
       </c>
       <c r="J9">
-        <v>1.027648578632741</v>
+        <v>1.02745523223865</v>
       </c>
       <c r="K9">
-        <v>1.036617026724443</v>
+        <v>1.035983227883276</v>
       </c>
       <c r="L9">
-        <v>1.021927668031495</v>
+        <v>1.021766204701005</v>
       </c>
       <c r="M9">
-        <v>1.040442906412779</v>
+        <v>1.040030476783725</v>
       </c>
       <c r="N9">
-        <v>1.013119882054654</v>
+        <v>1.0145743120632</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.040580238125178</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.040253827688803</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.021819161160629</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -809,46 +887,55 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9966121664223168</v>
+        <v>0.9966613938339115</v>
       </c>
       <c r="D10">
-        <v>1.020007871675527</v>
+        <v>1.019685814205189</v>
       </c>
       <c r="E10">
-        <v>1.004716878264099</v>
+        <v>1.004770369192563</v>
       </c>
       <c r="F10">
-        <v>1.023784901342226</v>
+        <v>1.023600625224786</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.046211908341594</v>
+        <v>1.04610161077271</v>
       </c>
       <c r="J10">
-        <v>1.024960846188589</v>
+        <v>1.025008101746241</v>
       </c>
       <c r="K10">
-        <v>1.034025036306696</v>
+        <v>1.033708504837291</v>
       </c>
       <c r="L10">
-        <v>1.019001487090615</v>
+        <v>1.019054024026839</v>
       </c>
       <c r="M10">
-        <v>1.037737593069405</v>
+        <v>1.037556448242418</v>
       </c>
       <c r="N10">
-        <v>1.012223227133443</v>
+        <v>1.014042948537617</v>
       </c>
       <c r="O10">
-        <v>1.03</v>
+        <v>1.029999999999999</v>
       </c>
       <c r="P10">
-        <v>1.038490598666956</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.038347243204929</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.02135830430836</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -856,46 +943,55 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9945261937081746</v>
+        <v>0.9946872238225677</v>
       </c>
       <c r="D11">
-        <v>1.018752877237176</v>
+        <v>1.018552345797515</v>
       </c>
       <c r="E11">
-        <v>1.003174299450247</v>
+        <v>1.003324016959573</v>
       </c>
       <c r="F11">
-        <v>1.022943263576619</v>
+        <v>1.022850988236013</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.045765457934276</v>
+        <v>1.04572846354572</v>
       </c>
       <c r="J11">
-        <v>1.024128475823501</v>
+        <v>1.024282702962635</v>
       </c>
       <c r="K11">
-        <v>1.033329600017003</v>
+        <v>1.033132672494705</v>
       </c>
       <c r="L11">
-        <v>1.018036600387862</v>
+        <v>1.018183518265355</v>
       </c>
       <c r="M11">
-        <v>1.03744509694786</v>
+        <v>1.037354462151351</v>
       </c>
       <c r="N11">
-        <v>1.011979573272485</v>
+        <v>1.014101726732745</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.038695219843633</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.038623528808305</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.021282983621763</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -903,46 +999,55 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9938767369640993</v>
+        <v>0.9940666599289509</v>
       </c>
       <c r="D12">
-        <v>1.018446189233734</v>
+        <v>1.018273704638608</v>
       </c>
       <c r="E12">
-        <v>1.002716434439604</v>
+        <v>1.002889854982749</v>
       </c>
       <c r="F12">
-        <v>1.022956356771978</v>
+        <v>1.022885966455293</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.045689749816062</v>
+        <v>1.045670412134916</v>
       </c>
       <c r="J12">
-        <v>1.023942524257194</v>
+        <v>1.024124269537244</v>
       </c>
       <c r="K12">
-        <v>1.033228321392901</v>
+        <v>1.033058988038784</v>
       </c>
       <c r="L12">
-        <v>1.017791776243811</v>
+        <v>1.017961898570946</v>
       </c>
       <c r="M12">
-        <v>1.037656579919251</v>
+        <v>1.037587460745076</v>
       </c>
       <c r="N12">
-        <v>1.01194510017914</v>
+        <v>1.014179566291564</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.039188750820179</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.039134096876147</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.021297709282719</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -950,46 +1055,55 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.994291668792237</v>
+        <v>0.9944396759079668</v>
       </c>
       <c r="D13">
-        <v>1.018852255285989</v>
+        <v>1.018631025180997</v>
       </c>
       <c r="E13">
-        <v>1.00306241859694</v>
+        <v>1.00319770123462</v>
       </c>
       <c r="F13">
-        <v>1.023642061352159</v>
+        <v>1.0235355908723</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.045900865636655</v>
+        <v>1.04585288914426</v>
       </c>
       <c r="J13">
-        <v>1.024246083036729</v>
+        <v>1.024387747801825</v>
       </c>
       <c r="K13">
-        <v>1.033584121798372</v>
+        <v>1.033366916061417</v>
       </c>
       <c r="L13">
-        <v>1.018087344164541</v>
+        <v>1.018220064740935</v>
       </c>
       <c r="M13">
-        <v>1.038287351327563</v>
+        <v>1.038182793877404</v>
       </c>
       <c r="N13">
-        <v>1.012070772351507</v>
+        <v>1.014243004457923</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.039964012460887</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.039881357506405</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.021383777759114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -997,46 +1111,55 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9950625447393274</v>
+        <v>0.9951501509052696</v>
       </c>
       <c r="D14">
-        <v>1.019456906697495</v>
+        <v>1.01916772194164</v>
       </c>
       <c r="E14">
-        <v>1.003667138740897</v>
+        <v>1.003748766246544</v>
       </c>
       <c r="F14">
-        <v>1.024423828040378</v>
+        <v>1.024266637447856</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.046176812536851</v>
+        <v>1.046088406887959</v>
       </c>
       <c r="J14">
-        <v>1.024678129925704</v>
+        <v>1.024762035030951</v>
       </c>
       <c r="K14">
-        <v>1.034037491803123</v>
+        <v>1.033753502263898</v>
       </c>
       <c r="L14">
-        <v>1.018537106531252</v>
+        <v>1.018617207470633</v>
       </c>
       <c r="M14">
-        <v>1.038915776168906</v>
+        <v>1.038761373623764</v>
       </c>
       <c r="N14">
-        <v>1.012230420986076</v>
+        <v>1.014281610422121</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.040633985213087</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.040511943083404</v>
+      </c>
+      <c r="S14">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="T14">
+        <v>1.021475866551449</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1044,46 +1167,55 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.995485153815053</v>
+        <v>0.9955428799323401</v>
       </c>
       <c r="D15">
-        <v>1.019765459036026</v>
+        <v>1.019442905356116</v>
       </c>
       <c r="E15">
-        <v>1.003992803330241</v>
+        <v>1.004048186187858</v>
       </c>
       <c r="F15">
-        <v>1.024775431284886</v>
+        <v>1.024593267303406</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.046310134702238</v>
+        <v>1.046201800543029</v>
       </c>
       <c r="J15">
-        <v>1.024894735523053</v>
+        <v>1.024950043975817</v>
       </c>
       <c r="K15">
-        <v>1.034254099342689</v>
+        <v>1.033937296521075</v>
       </c>
       <c r="L15">
-        <v>1.018768300757378</v>
+        <v>1.018822655803911</v>
       </c>
       <c r="M15">
-        <v>1.03917535054066</v>
+        <v>1.038996392776877</v>
       </c>
       <c r="N15">
-        <v>1.012305946691572</v>
+        <v>1.014292068740687</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.040876665022624</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.040735217794642</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.021515928386531</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1091,46 +1223,55 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9977570693119855</v>
+        <v>0.9976737008487836</v>
       </c>
       <c r="D16">
-        <v>1.021339052357984</v>
+        <v>1.020857087630052</v>
       </c>
       <c r="E16">
-        <v>1.005723008384137</v>
+        <v>1.005655664933345</v>
       </c>
       <c r="F16">
-        <v>1.026369613499569</v>
+        <v>1.026068263889636</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.046957232822012</v>
+        <v>1.046753894440831</v>
       </c>
       <c r="J16">
-        <v>1.025982888957881</v>
+        <v>1.025902839015443</v>
       </c>
       <c r="K16">
-        <v>1.03529784493649</v>
+        <v>1.03482409971252</v>
       </c>
       <c r="L16">
-        <v>1.019953318882935</v>
+        <v>1.019887170032341</v>
       </c>
       <c r="M16">
-        <v>1.040243208322802</v>
+        <v>1.039946932041378</v>
       </c>
       <c r="N16">
-        <v>1.012664367313007</v>
+        <v>1.01433559959763</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.041682007234671</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
+        <v>1.041447825439906</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.021692429034449</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1138,46 +1279,55 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9990979169039388</v>
+        <v>0.9989449962376826</v>
       </c>
       <c r="D17">
-        <v>1.022230359956146</v>
+        <v>1.021666845382429</v>
       </c>
       <c r="E17">
-        <v>1.006736384480165</v>
+        <v>1.00660899287885</v>
       </c>
       <c r="F17">
-        <v>1.027178547686499</v>
+        <v>1.026816594852721</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.047306484030183</v>
+        <v>1.047055063858347</v>
       </c>
       <c r="J17">
-        <v>1.026590805026553</v>
+        <v>1.026443777141288</v>
       </c>
       <c r="K17">
-        <v>1.035859523051114</v>
+        <v>1.035305350068092</v>
       </c>
       <c r="L17">
-        <v>1.020627322489678</v>
+        <v>1.020502126396644</v>
       </c>
       <c r="M17">
-        <v>1.040726248641832</v>
+        <v>1.040370220430631</v>
       </c>
       <c r="N17">
-        <v>1.012855383913869</v>
+        <v>1.014377071059573</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.041934873269052</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
+        <v>1.04165343454375</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.021779773145351</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1185,46 +1335,55 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9997553391850618</v>
+        <v>0.9995804419265848</v>
       </c>
       <c r="D18">
-        <v>1.022598207212428</v>
+        <v>1.02200803297538</v>
       </c>
       <c r="E18">
-        <v>1.007216769753962</v>
+        <v>1.007071129831132</v>
       </c>
       <c r="F18">
-        <v>1.027339182221948</v>
+        <v>1.02695733266353</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.04742239233847</v>
+        <v>1.047155372123199</v>
       </c>
       <c r="J18">
-        <v>1.026827592698436</v>
+        <v>1.026659309035982</v>
       </c>
       <c r="K18">
-        <v>1.036037943107663</v>
+        <v>1.035457392842437</v>
       </c>
       <c r="L18">
-        <v>1.020912084338115</v>
+        <v>1.020768912530004</v>
       </c>
       <c r="M18">
-        <v>1.040702121815882</v>
+        <v>1.040326423924884</v>
       </c>
       <c r="N18">
-        <v>1.012914351613104</v>
+        <v>1.014379557748256</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.041678299579084</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
+        <v>1.041381250231521</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.021791148724859</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1232,46 +1391,55 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9997815486781441</v>
+        <v>0.999623956698161</v>
       </c>
       <c r="D19">
-        <v>1.022478106326825</v>
+        <v>1.021908797635324</v>
       </c>
       <c r="E19">
-        <v>1.007203227037037</v>
+        <v>1.007073873246845</v>
       </c>
       <c r="F19">
-        <v>1.026894499037566</v>
+        <v>1.026527694488604</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.047320810938029</v>
+        <v>1.047065920489708</v>
       </c>
       <c r="J19">
-        <v>1.026718135865296</v>
+        <v>1.026566467660423</v>
       </c>
       <c r="K19">
-        <v>1.035857274000164</v>
+        <v>1.03529720204642</v>
       </c>
       <c r="L19">
-        <v>1.020834888409063</v>
+        <v>1.020707715022108</v>
       </c>
       <c r="M19">
-        <v>1.040202459205625</v>
+        <v>1.039841538888081</v>
       </c>
       <c r="N19">
-        <v>1.012851642437412</v>
+        <v>1.014325408315909</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.040957967003366</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
+        <v>1.040672508551835</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.021730258297508</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1279,46 +1447,55 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9980528689865031</v>
+        <v>0.9980185492768749</v>
       </c>
       <c r="D20">
-        <v>1.021016227621016</v>
+        <v>1.020596670448416</v>
       </c>
       <c r="E20">
-        <v>1.005818965646381</v>
+        <v>1.005799285057499</v>
       </c>
       <c r="F20">
-        <v>1.024822729272185</v>
+        <v>1.024565893646454</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.0466270602224</v>
+        <v>1.046459315606194</v>
       </c>
       <c r="J20">
-        <v>1.025659056161498</v>
+        <v>1.025626066786779</v>
       </c>
       <c r="K20">
-        <v>1.034699331218767</v>
+        <v>1.03428676909651</v>
       </c>
       <c r="L20">
-        <v>1.019760261489643</v>
+        <v>1.019740921807247</v>
       </c>
       <c r="M20">
-        <v>1.038442705875908</v>
+        <v>1.038190110620487</v>
       </c>
       <c r="N20">
-        <v>1.012456335699262</v>
+        <v>1.014108645226991</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.039038072162774</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
+        <v>1.038838169424485</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.021475096731415</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1326,46 +1503,55 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9938124341864359</v>
+        <v>0.9940651380074027</v>
       </c>
       <c r="D21">
-        <v>1.018015352412006</v>
+        <v>1.017915765043972</v>
       </c>
       <c r="E21">
-        <v>1.00257122122982</v>
+        <v>1.002803891818068</v>
       </c>
       <c r="F21">
-        <v>1.021658223216855</v>
+        <v>1.021641925984963</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.045370857700153</v>
+        <v>1.04539454141471</v>
       </c>
       <c r="J21">
-        <v>1.02357115243986</v>
+        <v>1.023813106252146</v>
       </c>
       <c r="K21">
-        <v>1.032663271804173</v>
+        <v>1.032565485550419</v>
       </c>
       <c r="L21">
-        <v>1.017504044225673</v>
+        <v>1.017732337609795</v>
       </c>
       <c r="M21">
-        <v>1.036240571967057</v>
+        <v>1.036224566728141</v>
       </c>
       <c r="N21">
-        <v>1.011753542919282</v>
+        <v>1.014040605994151</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.037254364838033</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
+        <v>1.037241697707061</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.021121824746228</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1373,46 +1559,55 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.991119838614773</v>
+        <v>0.9915524884746053</v>
       </c>
       <c r="D22">
-        <v>1.016126960657682</v>
+        <v>1.016227926745038</v>
       </c>
       <c r="E22">
-        <v>1.00051937557158</v>
+        <v>1.000910095663694</v>
       </c>
       <c r="F22">
-        <v>1.0196983464684</v>
+        <v>1.019832963014911</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.044573802629724</v>
+        <v>1.044717036880613</v>
       </c>
       <c r="J22">
-        <v>1.022254800202256</v>
+        <v>1.022667981661348</v>
       </c>
       <c r="K22">
-        <v>1.031385568995698</v>
+        <v>1.03148461732842</v>
       </c>
       <c r="L22">
-        <v>1.016080550547245</v>
+        <v>1.016463544915258</v>
       </c>
       <c r="M22">
-        <v>1.03488942131193</v>
+        <v>1.035021504395795</v>
       </c>
       <c r="N22">
-        <v>1.011312409707411</v>
+        <v>1.013993166828564</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.03618501403908</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
+        <v>1.036289549567089</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.020900133323927</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1420,46 +1615,55 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9925520846945282</v>
+        <v>0.9928784489031834</v>
       </c>
       <c r="D23">
-        <v>1.01713100074954</v>
+        <v>1.017117355839494</v>
       </c>
       <c r="E23">
-        <v>1.001610086592404</v>
+        <v>1.001907237264491</v>
       </c>
       <c r="F23">
-        <v>1.020740039857342</v>
+        <v>1.020787771213237</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.044998639713405</v>
+        <v>1.045072731909206</v>
       </c>
       <c r="J23">
-        <v>1.022955151656002</v>
+        <v>1.023267257902396</v>
       </c>
       <c r="K23">
-        <v>1.032065425170005</v>
+        <v>1.032052032837104</v>
       </c>
       <c r="L23">
-        <v>1.016837641007931</v>
+        <v>1.01712906796775</v>
       </c>
       <c r="M23">
-        <v>1.035607967153607</v>
+        <v>1.035654823154766</v>
       </c>
       <c r="N23">
-        <v>1.011547110532585</v>
+        <v>1.01397681146421</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.036753698099235</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
+        <v>1.036790781675644</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.0210158029227</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1467,46 +1671,55 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.998085198506197</v>
+        <v>0.9980516311980797</v>
       </c>
       <c r="D24">
-        <v>1.021019039014</v>
+        <v>1.020600488850863</v>
       </c>
       <c r="E24">
-        <v>1.005838989387815</v>
+        <v>1.005820114461096</v>
       </c>
       <c r="F24">
-        <v>1.024781664331689</v>
+        <v>1.024525532193535</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.046620671275451</v>
+        <v>1.046453498616481</v>
       </c>
       <c r="J24">
-        <v>1.025657156905696</v>
+        <v>1.02562488881834</v>
       </c>
       <c r="K24">
-        <v>1.034686824514407</v>
+        <v>1.034275243610527</v>
       </c>
       <c r="L24">
-        <v>1.019764335912777</v>
+        <v>1.019745787498863</v>
       </c>
       <c r="M24">
-        <v>1.038387127414196</v>
+        <v>1.038135219049999</v>
       </c>
       <c r="N24">
-        <v>1.012452582415234</v>
+        <v>1.014102233668985</v>
       </c>
       <c r="O24">
-        <v>1.03</v>
+        <v>1.029999999999999</v>
       </c>
       <c r="P24">
-        <v>1.038953225225504</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16">
+        <v>1.038753856188437</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.021468765096991</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1514,43 +1727,52 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.004299980917706</v>
+        <v>1.004007021497849</v>
       </c>
       <c r="D25">
-        <v>1.025403059787722</v>
+        <v>1.024637847837924</v>
       </c>
       <c r="E25">
-        <v>1.010618526723706</v>
+        <v>1.01037357794691</v>
       </c>
       <c r="F25">
-        <v>1.029354857055714</v>
+        <v>1.028847855824973</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.048401724014512</v>
+        <v>1.04803880754693</v>
       </c>
       <c r="J25">
-        <v>1.028683495072193</v>
+        <v>1.028400281809135</v>
       </c>
       <c r="K25">
-        <v>1.037619421514889</v>
+        <v>1.036865364069689</v>
       </c>
       <c r="L25">
-        <v>1.023054210112024</v>
+        <v>1.022812963883518</v>
       </c>
       <c r="M25">
-        <v>1.041513947850614</v>
+        <v>1.041014263098249</v>
       </c>
       <c r="N25">
-        <v>1.013466642341065</v>
+        <v>1.014792831859791</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.041427895019871</v>
+        <v>1.041032428441322</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.021997497942302</v>
       </c>
     </row>
   </sheetData>
